--- a/web/excel/horti_buah.xlsx
+++ b/web/excel/horti_buah.xlsx
@@ -21,6 +21,24 @@
     <t>Produksi (kuintal)</t>
   </si>
   <si>
+    <t>Mangga</t>
+  </si>
+  <si>
+    <t>Durian</t>
+  </si>
+  <si>
+    <t>Jeruk</t>
+  </si>
+  <si>
+    <t>Pisang</t>
+  </si>
+  <si>
+    <t>Pepaya</t>
+  </si>
+  <si>
+    <t>Nanas</t>
+  </si>
+  <si>
     <t>Alpukat</t>
   </si>
   <si>
@@ -28,9 +46,6 @@
   </si>
   <si>
     <t>Duku Langsat</t>
-  </si>
-  <si>
-    <t>Durian</t>
   </si>
   <si>
     <t>Jambu Biji</t>
@@ -42,25 +57,10 @@
     <t>Jeruk Siam Keprok</t>
   </si>
   <si>
-    <t>Jeruk Besar</t>
-  </si>
-  <si>
-    <t>Mangga</t>
-  </si>
-  <si>
     <t>Manggis</t>
   </si>
   <si>
     <t>Nangka Cempedak</t>
-  </si>
-  <si>
-    <t>Nanas</t>
-  </si>
-  <si>
-    <t>Pepaya</t>
-  </si>
-  <si>
-    <t>Pisang</t>
   </si>
   <si>
     <t>Rambutan</t>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -115,23 +115,7 @@
       <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <i/>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-    </font>
     <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,34 +145,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -222,9 +201,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="21.57"/>
     <col customWidth="1" min="2" max="2" width="22.0"/>
-    <col customWidth="1" min="3" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="28.0"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="4" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="16.43"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -240,292 +219,167 @@
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
+      <c r="B25" s="6"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="G29" s="9"/>
-    </row>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -1491,12 +1345,6 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
